--- a/uploads/1/ota.xlsx
+++ b/uploads/1/ota.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app_auditorias\uploads\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DB1E13-9465-4422-A2D3-654118161C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199F7DA3-1CB6-420D-8E9C-41364B55BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB4C2080-33BF-4064-94D0-2BB3462F5794}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Proyecto E SAS</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Dr. Clauders -  Cordero y arroz - 1 KG</t>
-  </si>
-  <si>
-    <t>7707865305488</t>
   </si>
   <si>
     <t>Belly Treats - Mix Parrillero - 200 GR</t>
@@ -564,7 +561,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,7 +639,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -679,11 +676,11 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="3">
+        <v>7707188180229</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -695,10 +692,10 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D12" s="4">
         <v>4</v>
@@ -710,10 +707,10 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -722,7 +719,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -737,7 +734,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -752,7 +749,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>

--- a/uploads/1/ota.xlsx
+++ b/uploads/1/ota.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app_auditorias\uploads\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199F7DA3-1CB6-420D-8E9C-41364B55BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AAE931-A0AE-4456-9FA6-E65B07D45953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB4C2080-33BF-4064-94D0-2BB3462F5794}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Proyecto E SAS</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Un Enviada</t>
-  </si>
-  <si>
-    <t>4014355222433</t>
   </si>
   <si>
     <t>Dr Clauders - Pavo y Arroz - 800 GR</t>
@@ -561,7 +558,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,7 +636,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -648,11 +645,11 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="3">
+        <v>7705110000058</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -664,10 +661,10 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -680,7 +677,7 @@
         <v>7707188180229</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -692,10 +689,10 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D12" s="4">
         <v>4</v>
@@ -707,10 +704,10 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -719,7 +716,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -734,7 +731,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -749,7 +746,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>

--- a/uploads/1/ota.xlsx
+++ b/uploads/1/ota.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app_auditorias\uploads\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AAE931-A0AE-4456-9FA6-E65B07D45953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C821C264-BB9B-4E00-B639-012631EEEB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB4C2080-33BF-4064-94D0-2BB3462F5794}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/uploads/1/ota.xlsx
+++ b/uploads/1/ota.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app_auditorias\uploads\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C821C264-BB9B-4E00-B639-012631EEEB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA73275-13BE-4820-AC82-549D4AEB5B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB4C2080-33BF-4064-94D0-2BB3462F5794}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>VE24682</t>
-  </si>
-  <si>
     <t>Total - VE24682</t>
+  </si>
+  <si>
+    <t>VE131997</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,7 +636,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -716,7 +716,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
